--- a/review/waning-beyond-6m.xlsx
+++ b/review/waning-beyond-6m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eh1415/Documents/waning-ve-2dose-1year/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8E4204-FFA0-E44B-9CB8-6F287EF296D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09F6B5-4B68-7348-8632-D5E9A6912189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32820" yWindow="-2360" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="203">
   <si>
     <t>author</t>
   </si>
@@ -596,13 +596,46 @@
   </si>
   <si>
     <t>− 12.1 (− 19.1 to − 5.5)</t>
+  </si>
+  <si>
+    <t>kerr</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>71 (63, 78)</t>
+  </si>
+  <si>
+    <t>70 (58, 79)</t>
+  </si>
+  <si>
+    <t>60 (42, 72)</t>
+  </si>
+  <si>
+    <t>54 (30, 69)</t>
+  </si>
+  <si>
+    <t>53 (26, 70)</t>
+  </si>
+  <si>
+    <t>58 (30, 75)</t>
+  </si>
+  <si>
+    <t>46 (13, 67)</t>
+  </si>
+  <si>
+    <t>target trial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -645,6 +678,11 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -679,23 +717,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,10 +952,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4354,9 +4392,231 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H108" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I108" t="s">
+        <v>195</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>28</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H109" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110">
+        <v>42</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H110" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I110" t="s">
+        <v>197</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111">
+        <v>56</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H111" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112">
+        <v>70</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H112" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I112" t="s">
+        <v>199</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113">
+        <v>84</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H113" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114">
+        <v>96</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H114" s="16">
+        <v>44377</v>
+      </c>
+      <c r="I114" t="s">
+        <v>201</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>